--- a/biology/Médecine/1455_en_santé_et_médecine/1455_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1455_en_santé_et_médecine/1455_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1455_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1455_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1455 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1455_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1455_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En Aragon en Espagne, sous le patronage des saints Côme et Damien, fondation de la confrérie des barbiers et chirurgiens de Saragosse[1].
-En Thaïlande, les chroniques du règne de Boromma Trailokanat attestent que le palais dispose de deux collèges de masseurs[2].
-Fondation à Rome de l'hôpital Saint-Yves, destiné aux pèlerins bretons de passage[3].
-Fondation d'un hôpital par les bourgeois de Cerlier en Suisse[4].
-Fondation à Mirecourt, en Lorraine, par Richard le Favart, d'un hôpital « destiné à recevoir les malades, les femmes enceintes et les voyageurs[5] ».
-Fondation à Séville de l'Hospital de San Hermenegildo, dit « del Cardinal », du titre de son fondateur, Juan de Cervantes[6].
-Vers 1455 : fondation à Rome, sous le pontificat de Calixte III, de l'hôpital de Sainte-Marie-de-la-Consolation[7].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En Aragon en Espagne, sous le patronage des saints Côme et Damien, fondation de la confrérie des barbiers et chirurgiens de Saragosse.
+En Thaïlande, les chroniques du règne de Boromma Trailokanat attestent que le palais dispose de deux collèges de masseurs.
+Fondation à Rome de l'hôpital Saint-Yves, destiné aux pèlerins bretons de passage.
+Fondation d'un hôpital par les bourgeois de Cerlier en Suisse.
+Fondation à Mirecourt, en Lorraine, par Richard le Favart, d'un hôpital « destiné à recevoir les malades, les femmes enceintes et les voyageurs ».
+Fondation à Séville de l'Hospital de San Hermenegildo, dit « del Cardinal », du titre de son fondateur, Juan de Cervantes.
+Vers 1455 : fondation à Rome, sous le pontificat de Calixte III, de l'hôpital de Sainte-Marie-de-la-Consolation.</t>
         </is>
       </c>
     </row>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1455_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1455_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le médecin vietnamien Nguyen Truc (vi) (1417-1474), achève son traité de pédiatrie, le Bảo Anh Lương Phương (« Méthodes efficaces pour protéger les enfants[8] »).</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le médecin vietnamien Nguyen Truc (vi) (1417-1474), achève son traité de pédiatrie, le Bảo Anh Lương Phương (« Méthodes efficaces pour protéger les enfants »).</t>
         </is>
       </c>
     </row>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1455_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1455_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,9 +593,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Vers 1455 : Hans von Gersdorff (mort en 1529), chirurgien allemand, auteur du Feldbuch der Wundarzney, manuel de chirurgie publié à Strasbourg en 1517[9],[10].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Vers 1455 : Hans von Gersdorff (mort en 1529), chirurgien allemand, auteur du Feldbuch der Wundarzney, manuel de chirurgie publié à Strasbourg en 1517,.</t>
         </is>
       </c>
     </row>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1455_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1455_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,11 +625,13 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Avant le 10 mai : Jacques Candel (né à une date inconnue), chirurgien à Bruges, Bruxelles et Lille, attesté à la cour de Bourgogne à partir de 1434[11].
-Jacques Angeli (né en 1390), professeur de médecine à Montpellier, chancelier et réformateur de l'université, auteur des Puncta medicine[12].
-1455 au plus tôt[13] : Renaud Thierry (né vers 1391[14]), Premier chirurgien du roi Charles VII[15].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Avant le 10 mai : Jacques Candel (né à une date inconnue), chirurgien à Bruges, Bruxelles et Lille, attesté à la cour de Bourgogne à partir de 1434.
+Jacques Angeli (né en 1390), professeur de médecine à Montpellier, chancelier et réformateur de l'université, auteur des Puncta medicine.
+1455 au plus tôt : Renaud Thierry (né vers 1391), Premier chirurgien du roi Charles VII.</t>
         </is>
       </c>
     </row>
